--- a/rozklasowany/excelki/cases/Patricia_Thomas_University of Silesia.xlsx
+++ b/rozklasowany/excelki/cases/Patricia_Thomas_University of Silesia.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Case Number</t>
+          <t>case number</t>
         </is>
       </c>
     </row>
